--- a/RUDN/Importance/Varible_class_in_Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_class_in_Eastern Asia.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5000000000000001</v>
+        <v>0.6666666865348816</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4999999999999999</v>
+        <v>0.3333333432674408</v>
       </c>
     </row>
   </sheetData>
